--- a/Challenge 1 _Weather Patterns/Jonathan_Khabusi/era5-x0.25_timeseries_tas,pr,tx84rr_timeseries_monthly_1950-2023_mean_historical_era5_x0.25_mean.xlsx
+++ b/Challenge 1 _Weather Patterns/Jonathan_Khabusi/era5-x0.25_timeseries_tas,pr,tx84rr_timeseries_monthly_1950-2023_mean_historical_era5_x0.25_mean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathankhabusi/Downloads/Producers Direct/datakit-smallholder-farmers-fall-2025/Challenge 1 _Weather Patterns/Jonathan_Khabusi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E632BD58-1478-D54D-AD72-1407DBCF8840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172E26AD-2B99-C446-BF93-0A47955ADA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2738,13 +2738,13 @@
     <t>tas</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>pr</t>
   </si>
   <si>
     <t>txx</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -16082,23 +16082,23 @@
   <dimension ref="A1:D889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>892</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
